--- a/result_1/Uninitialized variable.xlsx
+++ b/result_1/Uninitialized variable.xlsx
@@ -17,16 +17,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +34,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +42,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:B72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,11 +422,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" t="inlineStr">
         <is>
           <t>contract address</t>
         </is>
       </c>
+      <c r="B1" t="inlineStr"/>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -446,6 +435,9 @@
           <t>0x01b21934ba28dfd8a22c4d21c710290500a5081f</t>
         </is>
       </c>
+      <c r="B2" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -453,6 +445,9 @@
           <t>0x04baddfb21723ec467e9993b715c5e0d673bac96</t>
         </is>
       </c>
+      <c r="B3" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -460,6 +455,9 @@
           <t>0x058c1548b7f2214be1f730ce94bc760fc4930c14</t>
         </is>
       </c>
+      <c r="B4" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -467,6 +465,9 @@
           <t>0x08fc24c9128591b74191fcff6833e746ba67d63e</t>
         </is>
       </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -474,6 +475,9 @@
           <t>0x0d83102ec81853f3334bd2b9e9fcce7adf96ccc7</t>
         </is>
       </c>
+      <c r="B6" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -481,6 +485,9 @@
           <t>0x1332059337953dbba74c89f6cb7ff0c8498ea925</t>
         </is>
       </c>
+      <c r="B7" t="n">
+        <v>894</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -488,6 +495,9 @@
           <t>0x13b87fb8e6152032fd525f64f158c129a230b6ee</t>
         </is>
       </c>
+      <c r="B8" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -495,6 +505,9 @@
           <t>0x181a81338bd9ebf423624b0e9994c658817ebd38</t>
         </is>
       </c>
+      <c r="B9" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -502,6 +515,9 @@
           <t>0x1a08d7c9a84f339381618b2319ed9252956857b7</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -509,6 +525,9 @@
           <t>0x1f7725942d18118d34621c6eb106a3f418f66710</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -516,6 +535,9 @@
           <t>0x1fab9d2996767db0ca6af12fd92c1f2aab2675a0</t>
         </is>
       </c>
+      <c r="B12" t="n">
+        <v>573</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -523,6 +545,9 @@
           <t>0x2075d158924f5030aece55179848c2bd7ec5833f</t>
         </is>
       </c>
+      <c r="B13" t="n">
+        <v>16</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -530,6 +555,9 @@
           <t>0x21feda639f23647ac4066f25caaaa4fadb9eb595</t>
         </is>
       </c>
+      <c r="B14" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -537,6 +565,9 @@
           <t>0x27421fa936230e577ee4e91f983e788adb85ac85</t>
         </is>
       </c>
+      <c r="B15" t="n">
+        <v>74</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -544,6 +575,9 @@
           <t>0x29d6cf436c893c7e44ea926411d5fd4dd763d9b3</t>
         </is>
       </c>
+      <c r="B16" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -551,6 +585,9 @@
           <t>0x2d820ea3a6b9302c500feeb7f6361ba1ddfa5aba</t>
         </is>
       </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -558,6 +595,9 @@
           <t>0x2f069a1d7a052052458e8b5511e91221eb337c52</t>
         </is>
       </c>
+      <c r="B18" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -565,6 +605,9 @@
           <t>0x3268ecb4fcba1ca9f43da8ed05ffc80382cef1da</t>
         </is>
       </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -572,6 +615,9 @@
           <t>0x34bd7814bfef669936f05e355abd882acfc569b2</t>
         </is>
       </c>
+      <c r="B20" t="n">
+        <v>345</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -579,6 +625,9 @@
           <t>0x36f726e01cc85fdb0d998dfc442856379c569274</t>
         </is>
       </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -586,6 +635,9 @@
           <t>0x37541ebf8b4e25d36fbaa9b4c4eaad8c06314d6f</t>
         </is>
       </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -593,6 +645,9 @@
           <t>0x37eb3cb268a0dd1bc2c383296fe34f58c5b5db8b</t>
         </is>
       </c>
+      <c r="B23" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -600,6 +655,9 @@
           <t>0x3ea47982981125d07740c38b4f633918433c3cc1</t>
         </is>
       </c>
+      <c r="B24" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -607,6 +665,9 @@
           <t>0x413c8657b6e6fa2b433db62271e662a470de4ba0</t>
         </is>
       </c>
+      <c r="B25" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -614,6 +675,9 @@
           <t>0x414bf51522a681dce60ff432067e89ac8326aaf7</t>
         </is>
       </c>
+      <c r="B26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -621,6 +685,9 @@
           <t>0x4fdc2078d8bc92e1ee594759d7362f94b60b1a3d</t>
         </is>
       </c>
+      <c r="B27" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -628,6 +695,9 @@
           <t>0x559be9a89db88794645abb93e3bfc1af2ee0be40</t>
         </is>
       </c>
+      <c r="B28" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -635,6 +705,9 @@
           <t>0x559cc6564ef51bd1ad9fbe752c9455cb6fb7feb1</t>
         </is>
       </c>
+      <c r="B29" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -642,6 +715,9 @@
           <t>0x5809df7d3bc8b26e148c60ce2998c911f248cca2</t>
         </is>
       </c>
+      <c r="B30" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -649,6 +725,9 @@
           <t>0x59f3d26902caf222d9d4abb91fe2cb9c9956c010</t>
         </is>
       </c>
+      <c r="B31" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -656,6 +735,9 @@
           <t>0x5d0ee539893323f9965e3ac2846ea6421255ae79</t>
         </is>
       </c>
+      <c r="B32" t="n">
+        <v>383</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -663,6 +745,9 @@
           <t>0x6324d9d0a23f5ddba165bf8cc61da455350895f2</t>
         </is>
       </c>
+      <c r="B33" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -670,6 +755,9 @@
           <t>0x64ba926175bc69ba757ef53a6d5ef616889c9999</t>
         </is>
       </c>
+      <c r="B34" t="n">
+        <v>115</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -677,6 +765,9 @@
           <t>0x650734bfd0465b7c6cd2932ea555e721308fd0b3</t>
         </is>
       </c>
+      <c r="B35" t="n">
+        <v>23</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -684,6 +775,9 @@
           <t>0x652eb151869c2e8fa354f29321ba192d5d9f84dc</t>
         </is>
       </c>
+      <c r="B36" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -691,6 +785,9 @@
           <t>0x656610729fc13e8283d96aa69cdf56c112222951</t>
         </is>
       </c>
+      <c r="B37" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -698,6 +795,9 @@
           <t>0x6a2e025f43ca4d0d3c61bdee85a8e37e81880528</t>
         </is>
       </c>
+      <c r="B38" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -705,6 +805,9 @@
           <t>0x6f952d7acaa2dffaecfe34d064ed5b46fcc59664</t>
         </is>
       </c>
+      <c r="B39" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -712,6 +815,9 @@
           <t>0x714fa889ea1c47dc52a5cb0c6c90115d7c572133</t>
         </is>
       </c>
+      <c r="B40" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -719,6 +825,9 @@
           <t>0x741f1923974464efd0aa70e77800ba5d9ed18902</t>
         </is>
       </c>
+      <c r="B41" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -726,6 +835,9 @@
           <t>0x74808c86c6f0bc6f59a3a1430ddfcd2e29952eac</t>
         </is>
       </c>
+      <c r="B42" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -733,6 +845,9 @@
           <t>0x757167d6238936428d9baf0a29605b2783e3b925</t>
         </is>
       </c>
+      <c r="B43" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -740,6 +855,9 @@
           <t>0x783cf9c6754bf826f1727620b4baa19714fedf8d</t>
         </is>
       </c>
+      <c r="B44" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -747,6 +865,9 @@
           <t>0x787b9a8978b21476abb78876f24c49c0e513065e</t>
         </is>
       </c>
+      <c r="B45" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -754,6 +875,9 @@
           <t>0x7ad537f90bcdd4d2c5eaef4285643e5040c703b7</t>
         </is>
       </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -761,6 +885,9 @@
           <t>0x8685631276cfcf17a973d92f6dc11645e5158c0c</t>
         </is>
       </c>
+      <c r="B47" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -768,6 +895,9 @@
           <t>0x89695d5b003eb6a546c1b6d3b272c36e423e9477</t>
         </is>
       </c>
+      <c r="B48" t="n">
+        <v>1689</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -775,6 +905,9 @@
           <t>0x8ac03a3304519879e2ddb114c2eb2163043ab4b0</t>
         </is>
       </c>
+      <c r="B49" t="n">
+        <v>6034</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -782,6 +915,9 @@
           <t>0x8dcabb5801bde17e5c5ede7624440fa956baac3b</t>
         </is>
       </c>
+      <c r="B50" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -789,6 +925,9 @@
           <t>0x94602b0e2512ddad62a935763bf1277c973b2758</t>
         </is>
       </c>
+      <c r="B51" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -796,6 +935,9 @@
           <t>0x96830139e44251ddbe3d1c4c4110262b47cf6d34</t>
         </is>
       </c>
+      <c r="B52" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -803,6 +945,9 @@
           <t>0x9823e4e4f4552cd84720dabbd6fb2c7b67066c6c</t>
         </is>
       </c>
+      <c r="B53" t="n">
+        <v>8</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -810,6 +955,9 @@
           <t>0x9ccbccffd3bf7b2fed7781c07d3d7726689bb68c</t>
         </is>
       </c>
+      <c r="B54" t="n">
+        <v>130</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -817,6 +965,9 @@
           <t>0xa0323e104627bca15b719a3d8ebee715b2cb93db</t>
         </is>
       </c>
+      <c r="B55" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -824,6 +975,9 @@
           <t>0xa83c50d091e39a02e02fcc88d4c5eb2b9eff14eb</t>
         </is>
       </c>
+      <c r="B56" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -831,6 +985,9 @@
           <t>0xadccea0b14d26d786b99cf3ba3e9812cd4d23a81</t>
         </is>
       </c>
+      <c r="B57" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -838,6 +995,9 @@
           <t>0xae3e4e45121ecb11b1b534ff5f2b691b741c03ed</t>
         </is>
       </c>
+      <c r="B58" t="n">
+        <v>34</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -845,6 +1005,9 @@
           <t>0xb1f4ca3c6256f415e420de511504af8ea8a9c8e0</t>
         </is>
       </c>
+      <c r="B59" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -852,6 +1015,9 @@
           <t>0xb3ed21d5475817134c8f086d46dd1b5f6c49de0a</t>
         </is>
       </c>
+      <c r="B60" t="n">
+        <v>306</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -859,6 +1025,9 @@
           <t>0xc57fc2c9fd3130933bd29f01ff940dc52bc4115b</t>
         </is>
       </c>
+      <c r="B61" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -866,6 +1035,9 @@
           <t>0xd887c0197881626b3091b41354f9a99432d91aba</t>
         </is>
       </c>
+      <c r="B62" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -873,6 +1045,9 @@
           <t>0xda9236944915d5247ba72c9973fbe1486b9bb7f4</t>
         </is>
       </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -880,6 +1055,9 @@
           <t>0xe19ca313512e0231340e778abe7110401c737c23</t>
         </is>
       </c>
+      <c r="B64" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -887,6 +1065,9 @@
           <t>0xe4ceb5a09d7c38d91587716c6f3e27e3f83f13bd</t>
         </is>
       </c>
+      <c r="B65" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -894,6 +1075,9 @@
           <t>0xe6f245bb5268b16c5d79a349ec57673e477bd015</t>
         </is>
       </c>
+      <c r="B66" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -901,6 +1085,9 @@
           <t>0xf2861ad8dd602269c21eddd4d18255903cca47c7</t>
         </is>
       </c>
+      <c r="B67" t="n">
+        <v>124</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -908,6 +1095,9 @@
           <t>0xf42c06a58d4e538b6856afc206b13c530263c2c2</t>
         </is>
       </c>
+      <c r="B68" t="n">
+        <v>3359</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -915,6 +1105,9 @@
           <t>0xf5b72a62d7575f3a03954d4d7de2a2701da16049</t>
         </is>
       </c>
+      <c r="B69" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -922,6 +1115,9 @@
           <t>0xf6c61cb3b0add944ac53c9c2decaf2954f0515cb</t>
         </is>
       </c>
+      <c r="B70" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -929,12 +1125,18 @@
           <t>0xf8d039575188d85b27b4250f3f81d270e10821a0</t>
         </is>
       </c>
+      <c r="B71" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
           <t>0xfb6e71e0800bccc0db8a9cf326fe3213ca1a0ea0</t>
         </is>
+      </c>
+      <c r="B72" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/result_1/Uninitialized variable.xlsx
+++ b/result_1/Uninitialized variable.xlsx
@@ -8,59 +8,41 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A31E5F1-F328-4626-9C27-E28CEC776C7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D1C8A5-2F90-4FB5-87AF-7BC5EB99B389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>contract address</t>
   </si>
   <si>
-    <t>0x01b21934ba28dfd8a22c4d21c710290500a5081f</t>
-  </si>
-  <si>
-    <t>0x04baddfb21723ec467e9993b715c5e0d673bac96</t>
-  </si>
-  <si>
-    <t>0x058c1548b7f2214be1f730ce94bc760fc4930c14</t>
-  </si>
-  <si>
     <t>0x08fc24c9128591b74191fcff6833e746ba67d63e</t>
   </si>
   <si>
-    <t>0x0d83102ec81853f3334bd2b9e9fcce7adf96ccc7</t>
+    <t>0x1a08d7c9a84f339381618b2319ed9252956857b7</t>
   </si>
   <si>
     <t>0x1332059337953dbba74c89f6cb7ff0c8498ea925</t>
   </si>
   <si>
-    <t>0x13b87fb8e6152032fd525f64f158c129a230b6ee</t>
-  </si>
-  <si>
     <t>0x181a81338bd9ebf423624b0e9994c658817ebd38</t>
   </si>
   <si>
-    <t>0x1a08d7c9a84f339381618b2319ed9252956857b7</t>
-  </si>
-  <si>
     <t>0x1f7725942d18118d34621c6eb106a3f418f66710</t>
   </si>
   <si>
     <t>0x1fab9d2996767db0ca6af12fd92c1f2aab2675a0</t>
   </si>
   <si>
-    <t>0x2075d158924f5030aece55179848c2bd7ec5833f</t>
-  </si>
-  <si>
     <t>0x21feda639f23647ac4066f25caaaa4fadb9eb595</t>
   </si>
   <si>
@@ -88,87 +70,15 @@
     <t>0x37541ebf8b4e25d36fbaa9b4c4eaad8c06314d6f</t>
   </si>
   <si>
-    <t>0x37eb3cb268a0dd1bc2c383296fe34f58c5b5db8b</t>
-  </si>
-  <si>
-    <t>0x3ea47982981125d07740c38b4f633918433c3cc1</t>
-  </si>
-  <si>
-    <t>0x413c8657b6e6fa2b433db62271e662a470de4ba0</t>
-  </si>
-  <si>
-    <t>0x414bf51522a681dce60ff432067e89ac8326aaf7</t>
-  </si>
-  <si>
-    <t>0x4fdc2078d8bc92e1ee594759d7362f94b60b1a3d</t>
-  </si>
-  <si>
     <t>0x559be9a89db88794645abb93e3bfc1af2ee0be40</t>
   </si>
   <si>
-    <t>0x559cc6564ef51bd1ad9fbe752c9455cb6fb7feb1</t>
-  </si>
-  <si>
-    <t>0x5809df7d3bc8b26e148c60ce2998c911f248cca2</t>
-  </si>
-  <si>
-    <t>0x59f3d26902caf222d9d4abb91fe2cb9c9956c010</t>
-  </si>
-  <si>
-    <t>0x5d0ee539893323f9965e3ac2846ea6421255ae79</t>
-  </si>
-  <si>
-    <t>0x6324d9d0a23f5ddba165bf8cc61da455350895f2</t>
-  </si>
-  <si>
-    <t>0x64ba926175bc69ba757ef53a6d5ef616889c9999</t>
-  </si>
-  <si>
-    <t>0x650734bfd0465b7c6cd2932ea555e721308fd0b3</t>
-  </si>
-  <si>
-    <t>0x652eb151869c2e8fa354f29321ba192d5d9f84dc</t>
-  </si>
-  <si>
-    <t>0x656610729fc13e8283d96aa69cdf56c112222951</t>
-  </si>
-  <si>
-    <t>0x6a2e025f43ca4d0d3c61bdee85a8e37e81880528</t>
-  </si>
-  <si>
-    <t>0x6f952d7acaa2dffaecfe34d064ed5b46fcc59664</t>
-  </si>
-  <si>
-    <t>0x714fa889ea1c47dc52a5cb0c6c90115d7c572133</t>
-  </si>
-  <si>
-    <t>0x741f1923974464efd0aa70e77800ba5d9ed18902</t>
-  </si>
-  <si>
-    <t>0x74808c86c6f0bc6f59a3a1430ddfcd2e29952eac</t>
-  </si>
-  <si>
-    <t>0x757167d6238936428d9baf0a29605b2783e3b925</t>
-  </si>
-  <si>
-    <t>0x783cf9c6754bf826f1727620b4baa19714fedf8d</t>
-  </si>
-  <si>
     <t>0x787b9a8978b21476abb78876f24c49c0e513065e</t>
   </si>
   <si>
-    <t>0x7ad537f90bcdd4d2c5eaef4285643e5040c703b7</t>
-  </si>
-  <si>
-    <t>0x8685631276cfcf17a973d92f6dc11645e5158c0c</t>
-  </si>
-  <si>
     <t>0x89695d5b003eb6a546c1b6d3b272c36e423e9477</t>
   </si>
   <si>
-    <t>0x8ac03a3304519879e2ddb114c2eb2163043ab4b0</t>
-  </si>
-  <si>
     <t>0x8dcabb5801bde17e5c5ede7624440fa956baac3b</t>
   </si>
   <si>
@@ -193,37 +103,13 @@
     <t>0xadccea0b14d26d786b99cf3ba3e9812cd4d23a81</t>
   </si>
   <si>
-    <t>0xae3e4e45121ecb11b1b534ff5f2b691b741c03ed</t>
-  </si>
-  <si>
     <t>0xb1f4ca3c6256f415e420de511504af8ea8a9c8e0</t>
   </si>
   <si>
-    <t>0xb3ed21d5475817134c8f086d46dd1b5f6c49de0a</t>
-  </si>
-  <si>
-    <t>0xc57fc2c9fd3130933bd29f01ff940dc52bc4115b</t>
-  </si>
-  <si>
-    <t>0xd887c0197881626b3091b41354f9a99432d91aba</t>
-  </si>
-  <si>
     <t>0xda9236944915d5247ba72c9973fbe1486b9bb7f4</t>
   </si>
   <si>
-    <t>0xe19ca313512e0231340e778abe7110401c737c23</t>
-  </si>
-  <si>
     <t>0xe4ceb5a09d7c38d91587716c6f3e27e3f83f13bd</t>
-  </si>
-  <si>
-    <t>0xe6f245bb5268b16c5d79a349ec57673e477bd015</t>
-  </si>
-  <si>
-    <t>0xf2861ad8dd602269c21eddd4d18255903cca47c7</t>
-  </si>
-  <si>
-    <t>0xf42c06a58d4e538b6856afc206b13c530263c2c2</t>
   </si>
   <si>
     <t>0xf5b72a62d7575f3a03954d4d7de2a2701da16049</t>
@@ -242,8 +128,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -278,8 +172,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -582,10 +477,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -750,208 +645,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>71</v>
-      </c>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B35" s="1"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/result_1/Uninitialized variable.xlsx
+++ b/result_1/Uninitialized variable.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\open-source\EVM-Shield\result_1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8D1C8A5-2F90-4FB5-87AF-7BC5EB99B389}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5B97B5-6259-42D6-AE20-934F54FCA0A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16344" yWindow="3648" windowWidth="12144" windowHeight="8388" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -128,16 +128,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -172,9 +164,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -477,10 +468,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:A34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -645,21 +636,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B35" s="1"/>
-    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>